--- a/PO/L3/L3_Python/central_bank_discount_rate_annual_percent.xlsx
+++ b/PO/L3/L3_Python/central_bank_discount_rate_annual_percent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Labs_PO\PO\L3\L3_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A5B36B-6FE3-4DA4-B755-214432063687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B39693-512A-47C3-95CB-B86EEA377BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,12 +846,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -15463,7 +15463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
